--- a/Transformed_Test2.xlsx
+++ b/Transformed_Test2.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CP20"/>
+  <dimension ref="A1:CS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,6 +904,21 @@
           <t>ES..GEOLOC_SCITY.1</t>
         </is>
       </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>ES..DATE_YEAR</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>DATE_YEAR</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>ES..OA_DESCRIPTION</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -972,11 +983,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O2" s="2" t="n">
-        <v>8797</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>8797</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1924-01-31</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1924-01-31</t>
+        </is>
       </c>
       <c r="Q2" t="n">
         <v>1970</v>
@@ -1217,12 +1232,26 @@
       <c r="CC2" t="inlineStr"/>
       <c r="CD2" t="inlineStr"/>
       <c r="CE2" t="inlineStr"/>
-      <c r="CF2" t="inlineStr"/>
-      <c r="CG2" t="n">
-        <v>10317</v>
-      </c>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" t="inlineStr"/>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ2" t="inlineStr"/>
       <c r="CK2" t="inlineStr"/>
       <c r="CL2" t="inlineStr">
@@ -1230,10 +1259,33 @@
           <t>RECORD</t>
         </is>
       </c>
-      <c r="CM2" t="inlineStr"/>
-      <c r="CN2" t="inlineStr"/>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO2" t="inlineStr"/>
       <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -1298,11 +1350,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O3" s="2" t="n">
-        <v>8833</v>
-      </c>
-      <c r="P3" s="2" t="n">
-        <v>8833</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1924-03-07</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1924-01-07</t>
+        </is>
       </c>
       <c r="Q3" t="n">
         <v>1970</v>
@@ -1480,12 +1536,36 @@
       </c>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO3" t="inlineStr">
         <is>
           <t>Español</t>
@@ -1496,10 +1576,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU3" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -1520,8 +1616,16 @@
           <t>manuscripts (documents)</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr"/>
-      <c r="BZ3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA3" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -1535,17 +1639,60 @@
       <c r="CC3" t="inlineStr"/>
       <c r="CD3" t="inlineStr"/>
       <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
-      <c r="CG3" t="inlineStr"/>
-      <c r="CH3" t="inlineStr"/>
-      <c r="CI3" t="inlineStr"/>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ3" t="inlineStr"/>
       <c r="CK3" t="inlineStr"/>
-      <c r="CL3" t="inlineStr"/>
-      <c r="CM3" t="inlineStr"/>
-      <c r="CN3" t="inlineStr"/>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO3" t="inlineStr"/>
       <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -1610,11 +1757,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O4" s="2" t="n">
-        <v>8860</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>8860</v>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1924-04-03</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1924-01-03</t>
+        </is>
       </c>
       <c r="Q4" t="n">
         <v>1970</v>
@@ -1808,12 +1959,36 @@
       </c>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO4" t="inlineStr">
         <is>
           <t>Español</t>
@@ -1824,10 +1999,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU4" t="inlineStr">
         <is>
           <t>correspondencia legal</t>
@@ -1848,8 +2039,16 @@
           <t>business letters</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr"/>
-      <c r="BZ4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ4" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA4" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -1863,17 +2062,60 @@
       <c r="CC4" t="inlineStr"/>
       <c r="CD4" t="inlineStr"/>
       <c r="CE4" t="inlineStr"/>
-      <c r="CF4" t="inlineStr"/>
-      <c r="CG4" t="inlineStr"/>
-      <c r="CH4" t="inlineStr"/>
-      <c r="CI4" t="inlineStr"/>
+      <c r="CF4" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG4" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH4" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI4" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ4" t="inlineStr"/>
       <c r="CK4" t="inlineStr"/>
-      <c r="CL4" t="inlineStr"/>
-      <c r="CM4" t="inlineStr"/>
-      <c r="CN4" t="inlineStr"/>
+      <c r="CL4" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO4" t="inlineStr"/>
       <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR4" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -1938,11 +2180,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O5" s="2" t="n">
-        <v>8864</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>8864</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1924-04-07</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1924-01-07</t>
+        </is>
       </c>
       <c r="Q5" t="n">
         <v>1970</v>
@@ -2120,12 +2366,36 @@
       </c>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO5" t="inlineStr">
         <is>
           <t>Español</t>
@@ -2136,10 +2406,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU5" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -2160,8 +2446,16 @@
           <t>manuscripts (documents)[|]business letters</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr"/>
-      <c r="BZ5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ5" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA5" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -2175,17 +2469,60 @@
       <c r="CC5" t="inlineStr"/>
       <c r="CD5" t="inlineStr"/>
       <c r="CE5" t="inlineStr"/>
-      <c r="CF5" t="inlineStr"/>
-      <c r="CG5" t="inlineStr"/>
-      <c r="CH5" t="inlineStr"/>
-      <c r="CI5" t="inlineStr"/>
+      <c r="CF5" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG5" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH5" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI5" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ5" t="inlineStr"/>
       <c r="CK5" t="inlineStr"/>
-      <c r="CL5" t="inlineStr"/>
-      <c r="CM5" t="inlineStr"/>
-      <c r="CN5" t="inlineStr"/>
+      <c r="CL5" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO5" t="inlineStr"/>
       <c r="CP5" t="inlineStr"/>
+      <c r="CQ5" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR5" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -2250,11 +2587,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O6" s="2" t="n">
-        <v>8869</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>8869</v>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1934-04-12</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1934-01-12</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>1970</v>
@@ -2408,12 +2749,36 @@
       </c>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO6" t="inlineStr">
         <is>
           <t>Español</t>
@@ -2424,10 +2789,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU6" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -2448,8 +2829,16 @@
           <t>manuscripts (documents)[|]business letters</t>
         </is>
       </c>
-      <c r="BY6" t="inlineStr"/>
-      <c r="BZ6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ6" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA6" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -2463,17 +2852,60 @@
       <c r="CC6" t="inlineStr"/>
       <c r="CD6" t="inlineStr"/>
       <c r="CE6" t="inlineStr"/>
-      <c r="CF6" t="inlineStr"/>
-      <c r="CG6" t="inlineStr"/>
-      <c r="CH6" t="inlineStr"/>
-      <c r="CI6" t="inlineStr"/>
+      <c r="CF6" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG6" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH6" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI6" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ6" t="inlineStr"/>
       <c r="CK6" t="inlineStr"/>
-      <c r="CL6" t="inlineStr"/>
-      <c r="CM6" t="inlineStr"/>
-      <c r="CN6" t="inlineStr"/>
+      <c r="CL6" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO6" t="inlineStr"/>
       <c r="CP6" t="inlineStr"/>
+      <c r="CQ6" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="CR6" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2538,11 +2970,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>8885</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>8885</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1924-04-28</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1924-01-28</t>
+        </is>
       </c>
       <c r="Q7" t="n">
         <v>1970</v>
@@ -2688,12 +3124,36 @@
       </c>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO7" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -2704,10 +3164,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU7" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -2728,8 +3204,16 @@
           <t>typescripts</t>
         </is>
       </c>
-      <c r="BY7" t="inlineStr"/>
-      <c r="BZ7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ7" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA7" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -2743,17 +3227,60 @@
       <c r="CC7" t="inlineStr"/>
       <c r="CD7" t="inlineStr"/>
       <c r="CE7" t="inlineStr"/>
-      <c r="CF7" t="inlineStr"/>
-      <c r="CG7" t="inlineStr"/>
-      <c r="CH7" t="inlineStr"/>
-      <c r="CI7" t="inlineStr"/>
+      <c r="CF7" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG7" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH7" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI7" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ7" t="inlineStr"/>
       <c r="CK7" t="inlineStr"/>
-      <c r="CL7" t="inlineStr"/>
-      <c r="CM7" t="inlineStr"/>
-      <c r="CN7" t="inlineStr"/>
+      <c r="CL7" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO7" t="inlineStr"/>
       <c r="CP7" t="inlineStr"/>
+      <c r="CQ7" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR7" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -2818,11 +3345,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>8887</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>8887</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1924-04-30</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>1924-01-30</t>
+        </is>
       </c>
       <c r="Q8" t="n">
         <v>1970</v>
@@ -2976,12 +3507,36 @@
           <t>The following is  an archivist note: [30 April 1924]</t>
         </is>
       </c>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO8" t="inlineStr">
         <is>
           <t>Español</t>
@@ -2992,10 +3547,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU8" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -3016,8 +3587,16 @@
           <t>typescripts[|]birth announcements</t>
         </is>
       </c>
-      <c r="BY8" t="inlineStr"/>
-      <c r="BZ8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ8" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA8" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -3031,17 +3610,60 @@
       <c r="CC8" t="inlineStr"/>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="inlineStr"/>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="inlineStr"/>
-      <c r="CH8" t="inlineStr"/>
-      <c r="CI8" t="inlineStr"/>
+      <c r="CF8" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG8" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH8" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI8" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ8" t="inlineStr"/>
       <c r="CK8" t="inlineStr"/>
-      <c r="CL8" t="inlineStr"/>
-      <c r="CM8" t="inlineStr"/>
-      <c r="CN8" t="inlineStr"/>
+      <c r="CL8" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO8" t="inlineStr"/>
       <c r="CP8" t="inlineStr"/>
+      <c r="CQ8" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR8" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -3106,11 +3728,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O9" s="2" t="n">
-        <v>8893</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>8893</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1924-05-06</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1924-01-06</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>1970</v>
@@ -3304,12 +3930,36 @@
           <t>Esta carta fue escrita por varios autores: Josefina A. de Escobar[|]Carolina Velarde[|]Margarita B. Chavez[|]Corina A. de Campbell[|]Clotilde A. de Terrazas[|][illegible]</t>
         </is>
       </c>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO9" t="inlineStr">
         <is>
           <t>Español</t>
@@ -3320,10 +3970,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU9" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -3344,8 +4010,16 @@
           <t>typescripts[|]manuscripts (documents)[|]advertisements[|]business letters[|]business announcements</t>
         </is>
       </c>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ9" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA9" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -3359,17 +4033,60 @@
       <c r="CC9" t="inlineStr"/>
       <c r="CD9" t="inlineStr"/>
       <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="inlineStr"/>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" t="inlineStr"/>
+      <c r="CF9" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG9" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH9" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI9" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ9" t="inlineStr"/>
       <c r="CK9" t="inlineStr"/>
-      <c r="CL9" t="inlineStr"/>
-      <c r="CM9" t="inlineStr"/>
-      <c r="CN9" t="inlineStr"/>
+      <c r="CL9" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO9" t="inlineStr"/>
       <c r="CP9" t="inlineStr"/>
+      <c r="CQ9" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR9" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -3434,11 +4151,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O10" s="2" t="n">
-        <v>8927</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>8927</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1924-06-09</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1924-01-09</t>
+        </is>
       </c>
       <c r="Q10" t="n">
         <v>1970</v>
@@ -3600,12 +4321,36 @@
       </c>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO10" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -3616,10 +4361,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU10" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia legal</t>
@@ -3640,8 +4401,16 @@
           <t>typescripts[|}business letters</t>
         </is>
       </c>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ10" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA10" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -3655,17 +4424,60 @@
       <c r="CC10" t="inlineStr"/>
       <c r="CD10" t="inlineStr"/>
       <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
+      <c r="CF10" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG10" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH10" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI10" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ10" t="inlineStr"/>
       <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
+      <c r="CL10" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO10" t="inlineStr"/>
       <c r="CP10" t="inlineStr"/>
+      <c r="CQ10" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR10" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -3730,11 +4542,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O11" s="2" t="n">
-        <v>8942</v>
-      </c>
-      <c r="P11" s="2" t="n">
-        <v>8942</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1924-06-24</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1924-01-24</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>1970</v>
@@ -3904,12 +4720,36 @@
       </c>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO11" t="inlineStr">
         <is>
           <t>Español[|]Inglés</t>
@@ -3920,10 +4760,26 @@
           <t>Spanish[|]English</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU11" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -3944,8 +4800,16 @@
           <t>manuscripts (documents)</t>
         </is>
       </c>
-      <c r="BY11" t="inlineStr"/>
-      <c r="BZ11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ11" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA11" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -3959,17 +4823,60 @@
       <c r="CC11" t="inlineStr"/>
       <c r="CD11" t="inlineStr"/>
       <c r="CE11" t="inlineStr"/>
-      <c r="CF11" t="inlineStr"/>
-      <c r="CG11" t="inlineStr"/>
-      <c r="CH11" t="inlineStr"/>
-      <c r="CI11" t="inlineStr"/>
+      <c r="CF11" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG11" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH11" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI11" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ11" t="inlineStr"/>
       <c r="CK11" t="inlineStr"/>
-      <c r="CL11" t="inlineStr"/>
-      <c r="CM11" t="inlineStr"/>
-      <c r="CN11" t="inlineStr"/>
+      <c r="CL11" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO11" t="inlineStr"/>
       <c r="CP11" t="inlineStr"/>
+      <c r="CQ11" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR11" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -4036,12 +4943,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1924-06</t>
+          <t>1924-06-15</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1924-06</t>
+          <t>1924-01-15</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -4236,12 +5143,36 @@
           <t>This letter was written by multiple authors</t>
         </is>
       </c>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
-      <c r="BN12" t="inlineStr"/>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO12" t="inlineStr">
         <is>
           <t>Español</t>
@@ -4252,10 +5183,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
-      <c r="BR12" t="inlineStr"/>
-      <c r="BS12" t="inlineStr"/>
-      <c r="BT12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU12" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -4276,8 +5223,16 @@
           <t>typescripts[|]manuscripts (documents)</t>
         </is>
       </c>
-      <c r="BY12" t="inlineStr"/>
-      <c r="BZ12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA12" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -4291,17 +5246,60 @@
       <c r="CC12" t="inlineStr"/>
       <c r="CD12" t="inlineStr"/>
       <c r="CE12" t="inlineStr"/>
-      <c r="CF12" t="inlineStr"/>
-      <c r="CG12" t="inlineStr"/>
-      <c r="CH12" t="inlineStr"/>
-      <c r="CI12" t="inlineStr"/>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ12" t="inlineStr"/>
       <c r="CK12" t="inlineStr"/>
-      <c r="CL12" t="inlineStr"/>
-      <c r="CM12" t="inlineStr"/>
-      <c r="CN12" t="inlineStr"/>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO12" t="inlineStr"/>
       <c r="CP12" t="inlineStr"/>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -4366,16 +5364,8 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1924-06</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1924-06</t>
-        </is>
-      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="n">
         <v>1970</v>
       </c>
@@ -4536,12 +5526,36 @@
       </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
-      <c r="BN13" t="inlineStr"/>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO13" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -4552,10 +5566,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr"/>
-      <c r="BR13" t="inlineStr"/>
-      <c r="BS13" t="inlineStr"/>
-      <c r="BT13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU13" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -4576,8 +5606,16 @@
           <t>typescript</t>
         </is>
       </c>
-      <c r="BY13" t="inlineStr"/>
-      <c r="BZ13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ13" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA13" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -4591,17 +5629,52 @@
       <c r="CC13" t="inlineStr"/>
       <c r="CD13" t="inlineStr"/>
       <c r="CE13" t="inlineStr"/>
-      <c r="CF13" t="inlineStr"/>
-      <c r="CG13" t="inlineStr"/>
-      <c r="CH13" t="inlineStr"/>
-      <c r="CI13" t="inlineStr"/>
+      <c r="CF13" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG13" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH13" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI13" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ13" t="inlineStr"/>
       <c r="CK13" t="inlineStr"/>
-      <c r="CL13" t="inlineStr"/>
-      <c r="CM13" t="inlineStr"/>
-      <c r="CN13" t="inlineStr"/>
+      <c r="CL13" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO13" t="inlineStr"/>
       <c r="CP13" t="inlineStr"/>
+      <c r="CQ13" t="inlineStr"/>
+      <c r="CR13" t="inlineStr"/>
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -4666,11 +5739,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O14" s="2" t="n">
-        <v>9003</v>
-      </c>
-      <c r="P14" s="2" t="n">
-        <v>9003</v>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1924-08-23</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1924-01-23</t>
+        </is>
       </c>
       <c r="Q14" t="n">
         <v>1970</v>
@@ -4816,12 +5893,36 @@
           <t>The following is an archivist note: [23 Aug. 1924]</t>
         </is>
       </c>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
-      <c r="BN14" t="inlineStr"/>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO14" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -4832,10 +5933,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr"/>
-      <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
-      <c r="BT14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU14" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -4856,8 +5973,16 @@
           <t>typescripts[|]wedding announcments</t>
         </is>
       </c>
-      <c r="BY14" t="inlineStr"/>
-      <c r="BZ14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ14" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA14" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -4871,17 +5996,60 @@
       <c r="CC14" t="inlineStr"/>
       <c r="CD14" t="inlineStr"/>
       <c r="CE14" t="inlineStr"/>
-      <c r="CF14" t="inlineStr"/>
-      <c r="CG14" t="inlineStr"/>
-      <c r="CH14" t="inlineStr"/>
-      <c r="CI14" t="inlineStr"/>
+      <c r="CF14" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG14" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH14" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI14" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ14" t="inlineStr"/>
       <c r="CK14" t="inlineStr"/>
-      <c r="CL14" t="inlineStr"/>
-      <c r="CM14" t="inlineStr"/>
-      <c r="CN14" t="inlineStr"/>
+      <c r="CL14" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO14" t="inlineStr"/>
       <c r="CP14" t="inlineStr"/>
+      <c r="CQ14" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR14" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -4946,11 +6114,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O15" s="2" t="n">
-        <v>9016</v>
-      </c>
-      <c r="P15" s="2" t="n">
-        <v>9016</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1924-09-06</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>1924-01-06</t>
+        </is>
       </c>
       <c r="Q15" t="n">
         <v>1970</v>
@@ -5120,12 +6292,36 @@
           <t>Sobre pequeño con el nombre Rosa Bendite del Rosario. Lista de nombres en la página 5 y diferentes fechas del 7 de septiembre de 1924 al 8 de septiembre.</t>
         </is>
       </c>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
-      <c r="BN15" t="inlineStr"/>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO15" t="inlineStr">
         <is>
           <t>Español</t>
@@ -5136,10 +6332,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr"/>
-      <c r="BR15" t="inlineStr"/>
-      <c r="BS15" t="inlineStr"/>
-      <c r="BT15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU15" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -5160,8 +6372,16 @@
           <t>typescripts[|]manuscripts (documents)</t>
         </is>
       </c>
-      <c r="BY15" t="inlineStr"/>
-      <c r="BZ15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ15" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA15" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -5175,17 +6395,60 @@
       <c r="CC15" t="inlineStr"/>
       <c r="CD15" t="inlineStr"/>
       <c r="CE15" t="inlineStr"/>
-      <c r="CF15" t="inlineStr"/>
-      <c r="CG15" t="inlineStr"/>
-      <c r="CH15" t="inlineStr"/>
-      <c r="CI15" t="inlineStr"/>
+      <c r="CF15" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG15" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH15" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI15" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ15" t="inlineStr"/>
       <c r="CK15" t="inlineStr"/>
-      <c r="CL15" t="inlineStr"/>
-      <c r="CM15" t="inlineStr"/>
-      <c r="CN15" t="inlineStr"/>
+      <c r="CL15" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO15" t="inlineStr"/>
       <c r="CP15" t="inlineStr"/>
+      <c r="CQ15" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR15" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -5250,11 +6513,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O16" s="2" t="n">
-        <v>9030</v>
-      </c>
-      <c r="P16" s="2" t="n">
-        <v>9030</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1924-09-20</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>1924-01-20</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>1970</v>
@@ -5440,12 +6707,36 @@
       </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
-      <c r="BN16" t="inlineStr"/>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO16" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -5456,10 +6747,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr"/>
-      <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
-      <c r="BT16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU16" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -5480,8 +6787,16 @@
           <t>typescripts[|]manuscripts (documents)[|]advertisements[|]business letters[|]business announcements</t>
         </is>
       </c>
-      <c r="BY16" t="inlineStr"/>
-      <c r="BZ16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ16" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA16" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -5495,17 +6810,60 @@
       <c r="CC16" t="inlineStr"/>
       <c r="CD16" t="inlineStr"/>
       <c r="CE16" t="inlineStr"/>
-      <c r="CF16" t="inlineStr"/>
-      <c r="CG16" t="inlineStr"/>
-      <c r="CH16" t="inlineStr"/>
-      <c r="CI16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG16" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH16" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI16" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ16" t="inlineStr"/>
       <c r="CK16" t="inlineStr"/>
-      <c r="CL16" t="inlineStr"/>
-      <c r="CM16" t="inlineStr"/>
-      <c r="CN16" t="inlineStr"/>
+      <c r="CL16" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO16" t="inlineStr"/>
       <c r="CP16" t="inlineStr"/>
+      <c r="CQ16" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR16" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -5570,11 +6928,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O17" s="2" t="n">
-        <v>9062</v>
-      </c>
-      <c r="P17" s="2" t="n">
-        <v>9062</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1924-10-22</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1924-01-22</t>
+        </is>
       </c>
       <c r="Q17" t="n">
         <v>1970</v>
@@ -5744,12 +7106,36 @@
       </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO17" t="inlineStr">
         <is>
           <t>Español</t>
@@ -5760,10 +7146,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
-      <c r="BS17" t="inlineStr"/>
-      <c r="BT17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU17" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -5784,8 +7186,16 @@
           <t>manuscripts (documents)[|]business letters[|]typescripts</t>
         </is>
       </c>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ17" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA17" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -5799,17 +7209,60 @@
       <c r="CC17" t="inlineStr"/>
       <c r="CD17" t="inlineStr"/>
       <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
+      <c r="CF17" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG17" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH17" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI17" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ17" t="inlineStr"/>
       <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
+      <c r="CL17" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO17" t="inlineStr"/>
       <c r="CP17" t="inlineStr"/>
+      <c r="CQ17" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR17" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -5874,11 +7327,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O18" s="2" t="n">
-        <v>9067</v>
-      </c>
-      <c r="P18" s="2" t="n">
-        <v>9067</v>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1924-10-27</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1924-01-27</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>1970</v>
@@ -6040,12 +7497,36 @@
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
-      <c r="BN18" t="inlineStr"/>
+      <c r="BI18" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ18" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK18" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM18" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN18" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO18" t="inlineStr">
         <is>
           <t>Español</t>
@@ -6056,10 +7537,26 @@
           <t>Spanish</t>
         </is>
       </c>
-      <c r="BQ18" t="inlineStr"/>
-      <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
-      <c r="BT18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT18" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU18" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -6080,8 +7577,16 @@
           <t>manuscripts (documents)[|]business letters</t>
         </is>
       </c>
-      <c r="BY18" t="inlineStr"/>
-      <c r="BZ18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ18" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA18" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -6095,17 +7600,60 @@
       <c r="CC18" t="inlineStr"/>
       <c r="CD18" t="inlineStr"/>
       <c r="CE18" t="inlineStr"/>
-      <c r="CF18" t="inlineStr"/>
-      <c r="CG18" t="inlineStr"/>
-      <c r="CH18" t="inlineStr"/>
-      <c r="CI18" t="inlineStr"/>
+      <c r="CF18" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG18" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH18" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI18" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="inlineStr"/>
-      <c r="CL18" t="inlineStr"/>
-      <c r="CM18" t="inlineStr"/>
-      <c r="CN18" t="inlineStr"/>
+      <c r="CL18" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO18" t="inlineStr"/>
       <c r="CP18" t="inlineStr"/>
+      <c r="CQ18" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR18" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -6170,11 +7718,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O19" s="2" t="n">
-        <v>9090</v>
-      </c>
-      <c r="P19" s="2" t="n">
-        <v>9090</v>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1924-01-19</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1924-01-19</t>
+        </is>
       </c>
       <c r="Q19" t="n">
         <v>1970</v>
@@ -6368,12 +7920,36 @@
       </c>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
-      <c r="BN19" t="inlineStr"/>
+      <c r="BI19" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ19" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK19" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM19" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN19" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO19" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -6384,10 +7960,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr"/>
-      <c r="BR19" t="inlineStr"/>
-      <c r="BS19" t="inlineStr"/>
-      <c r="BT19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT19" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU19" t="inlineStr">
         <is>
           <t>correspondencia personal[|]correspondencia comercial</t>
@@ -6408,8 +8000,16 @@
           <t>typescripts[|]business letters</t>
         </is>
       </c>
-      <c r="BY19" t="inlineStr"/>
-      <c r="BZ19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ19" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA19" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -6423,17 +8023,60 @@
       <c r="CC19" t="inlineStr"/>
       <c r="CD19" t="inlineStr"/>
       <c r="CE19" t="inlineStr"/>
-      <c r="CF19" t="inlineStr"/>
-      <c r="CG19" t="inlineStr"/>
-      <c r="CH19" t="inlineStr"/>
-      <c r="CI19" t="inlineStr"/>
+      <c r="CF19" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG19" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH19" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI19" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="inlineStr"/>
-      <c r="CL19" t="inlineStr"/>
-      <c r="CM19" t="inlineStr"/>
-      <c r="CN19" t="inlineStr"/>
+      <c r="CL19" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO19" t="inlineStr"/>
       <c r="CP19" t="inlineStr"/>
+      <c r="CQ19" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR19" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -6498,11 +8141,15 @@
           <t>Ms0004</t>
         </is>
       </c>
-      <c r="O20" s="2" t="n">
-        <v>9109</v>
-      </c>
-      <c r="P20" s="2" t="n">
-        <v>9109</v>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1924-12-08</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1924-01-08</t>
+        </is>
       </c>
       <c r="Q20" t="n">
         <v>1970</v>
@@ -6672,12 +8319,36 @@
       </c>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
-      <c r="BN20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr">
+        <is>
+          <t>Biblioteca de la Universidad Estatal de Nuevo México</t>
+        </is>
+      </c>
+      <c r="BJ20" t="inlineStr">
+        <is>
+          <t>New Mexico State University Library</t>
+        </is>
+      </c>
+      <c r="BK20" t="inlineStr">
+        <is>
+          <t>Archivos y colecciones especiales de la biblioteca de NMSU</t>
+        </is>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>NMSU Library Archives and Special Collections</t>
+        </is>
+      </c>
+      <c r="BM20" t="inlineStr">
+        <is>
+          <t>Colecciones históricas de Río Grande</t>
+        </is>
+      </c>
+      <c r="BN20" t="inlineStr">
+        <is>
+          <t>Rio Grande Historical Collections</t>
+        </is>
+      </c>
       <c r="BO20" t="inlineStr">
         <is>
           <t>Inglés</t>
@@ -6688,10 +8359,26 @@
           <t>English</t>
         </is>
       </c>
-      <c r="BQ20" t="inlineStr"/>
-      <c r="BR20" t="inlineStr"/>
-      <c r="BS20" t="inlineStr"/>
-      <c r="BT20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>la aplicación/pdf</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>application/pdf</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>Texto</t>
+        </is>
+      </c>
+      <c r="BT20" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
       <c r="BU20" t="inlineStr">
         <is>
           <t>correspondencia personal</t>
@@ -6712,8 +8399,16 @@
           <t>manuscripts (documents)</t>
         </is>
       </c>
-      <c r="BY20" t="inlineStr"/>
-      <c r="BZ20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr">
+        <is>
+          <t>Abierto para la reutilización</t>
+        </is>
+      </c>
+      <c r="BZ20" t="inlineStr">
+        <is>
+          <t>Open for re-use</t>
+        </is>
+      </c>
       <c r="CA20" t="inlineStr">
         <is>
           <t>Inzurriaga, Yanelhy</t>
@@ -6727,17 +8422,60 @@
       <c r="CC20" t="inlineStr"/>
       <c r="CD20" t="inlineStr"/>
       <c r="CE20" t="inlineStr"/>
-      <c r="CF20" t="inlineStr"/>
-      <c r="CG20" t="inlineStr"/>
-      <c r="CH20" t="inlineStr"/>
-      <c r="CI20" t="inlineStr"/>
+      <c r="CF20" t="inlineStr">
+        <is>
+          <t>This collection is available in both, English and Spanish</t>
+        </is>
+      </c>
+      <c r="CG20" t="inlineStr">
+        <is>
+          <t>10317</t>
+        </is>
+      </c>
+      <c r="CH20" t="inlineStr">
+        <is>
+          <t>Documents</t>
+        </is>
+      </c>
+      <c r="CI20" t="inlineStr">
+        <is>
+          <t>PUBLISH</t>
+        </is>
+      </c>
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="inlineStr"/>
-      <c r="CL20" t="inlineStr"/>
-      <c r="CM20" t="inlineStr"/>
-      <c r="CN20" t="inlineStr"/>
+      <c r="CL20" t="inlineStr">
+        <is>
+          <t>RECORD</t>
+        </is>
+      </c>
+      <c r="CM20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="CN20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="CO20" t="inlineStr"/>
       <c r="CP20" t="inlineStr"/>
+      <c r="CQ20" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CR20" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>Esta colección está disponible en inglés y español</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
